--- a/Data/EC/NIT-9004415584.xlsx
+++ b/Data/EC/NIT-9004415584.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9AA14A-8264-4B2B-9A9C-01C844C48E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31ED4C0D-D66A-4EC2-BB4E-30B16E5E24F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8FAD88B2-F15F-4932-B36E-3F0F38E85C84}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6912AE9D-1CF2-4DCB-88CF-E5700989BEE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,133 +71,133 @@
     <t>GERMAN PAJARO MARTINEZ</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1121298353</t>
+  </si>
+  <si>
+    <t>JUAN DAVID PAYARES GALLARDO</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1121298353</t>
-  </si>
-  <si>
-    <t>JUAN DAVID PAYARES GALLARDO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -296,7 +296,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -309,9 +311,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -511,23 +511,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,10 +555,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9110E541-726A-9BBF-4E47-9B8E61AD1BFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA538A3E-3BC3-A7CE-D29F-442F37994C2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968DE2C0-03B2-41B3-85CD-62E227A3F110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1539A685-DAC3-4BA1-BE1A-1CB5FC9C0FD5}">
   <dimension ref="B2:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1140,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29166</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1154,16 +1154,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>984</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1183,13 +1183,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1206,13 +1206,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1229,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1252,13 +1252,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1275,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1298,13 +1298,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1321,13 +1321,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1344,13 +1344,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1367,13 +1367,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1390,13 +1390,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1413,13 +1413,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1436,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1459,13 +1459,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1482,13 +1482,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1505,13 +1505,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1528,13 +1528,13 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1551,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1574,13 +1574,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1597,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1620,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1643,13 +1643,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1666,13 +1666,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1689,13 +1689,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1712,13 +1712,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1735,13 +1735,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1758,13 +1758,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1781,13 +1781,13 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1804,13 +1804,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1827,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1850,13 +1850,13 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1873,13 +1873,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1896,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1919,13 +1919,13 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1942,13 +1942,13 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1965,13 +1965,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1988,13 +1988,13 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2011,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2034,13 +2034,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2057,13 +2057,13 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2074,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="22" t="s">
-        <v>51</v>
-      </c>
       <c r="F57" s="24">
-        <v>984</v>
+        <v>29166</v>
       </c>
       <c r="G57" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
